--- a/Tabelas/DoBTP.xlsx
+++ b/Tabelas/DoBTP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a78252d93c752efd/Leizer/Prj em andamento/Com financeiro/2023 - BCS-MPA - (FAPEX 230003)/Matlab/Dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a78252d93c752efd/Leizer/Prj em andamento/Com financeiro/2023 - BCS-MPA - (FAPEX 230003)/Matlab/mpc_bcss_simulink/Tabelas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_E54275DAF9610837E9545898F4C2E6952396BDFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9880A056-D9DB-4E59-9A9F-C34DD76FC53F}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_E54275DAF9610837E9545898F4C2E6952396BDFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{872AB894-ADF7-47F9-BC57-E89A41304184}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,9 +61,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,13 +156,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,7 +506,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,10 +521,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -541,10 +538,10 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -558,11 +555,11 @@
       <c r="C3" s="3">
         <v>183.7</v>
       </c>
-      <c r="D3" s="4">
-        <v>89.5</v>
-      </c>
-      <c r="E3" s="4">
-        <v>61.3</v>
+      <c r="D3" s="6">
+        <v>89.79</v>
+      </c>
+      <c r="E3" s="6">
+        <v>59.8</v>
       </c>
     </row>
   </sheetData>
